--- a/biology/Botanique/Parc_des_Carmes/Parc_des_Carmes.xlsx
+++ b/biology/Botanique/Parc_des_Carmes/Parc_des_Carmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Carmes ou anciennement Roz-Maria est un parc public de la municipalité de Quintin, dans les Côtes-d'Armor.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin, des XVIIe et XVIIIe siècles, appartenait au Couvent des Pères Carmes, établis à Quintin depuis 1619. La parcelle devint la propriété du conseil municipal le 21 août 1978.
 Le jardin est situé dans la partie basse de l'ancienne propriété, et comprend un ensemble de fontaines et viviers classés Monument historique.
